--- a/products.xlsx
+++ b/products.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\beppe98\Projects\controllo_data_scadenza\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\beppe98\Projects\expiration-date-checker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F933807C-A4D3-4929-82A3-846F04432692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217C0C54-2114-46C0-872A-DACAF9EF49AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16065" yWindow="0" windowWidth="16965" windowHeight="18615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="3240" windowWidth="38295" windowHeight="20505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -28,12 +28,6 @@
     <t>Part Name</t>
   </si>
   <si>
-    <t>Quantità</t>
-  </si>
-  <si>
-    <t>Confezionamento</t>
-  </si>
-  <si>
     <t>purchase_price</t>
   </si>
   <si>
@@ -77,6 +71,12 @@
   </si>
   <si>
     <t>4444 | Test</t>
+  </si>
+  <si>
+    <t>Packaging</t>
+  </si>
+  <si>
+    <t>Quantity</t>
   </si>
 </sst>
 </file>
@@ -435,7 +435,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,69 +450,69 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
         <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -522,5 +522,6 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>